--- a/biology/Botanique/Pteleopsis_hylodendron/Pteleopsis_hylodendron.xlsx
+++ b/biology/Botanique/Pteleopsis_hylodendron/Pteleopsis_hylodendron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pteleopsis hylodendron Mildbr. est une espèce de plantes de la famille des Combretaceae et du genre Pteleopsis, présente en Afrique tropicale.  
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre qui peut atteindre 25 ou 40 m, voire occasionnellement 50 m[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre qui peut atteindre 25 ou 40 m, voire occasionnellement 50 m.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier spécimen a été observé, en fleurs, à la fin du mois de décembre 1913, par Mildbraed entre Bipindi et Ebolowa, au sud du Cameroun[3].
-L'espèce est présente dans les forêts d'autres pays d'Afrique de l'Ouest et du Centre[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier spécimen a été observé, en fleurs, à la fin du mois de décembre 1913, par Mildbraed entre Bipindi et Ebolowa, au sud du Cameroun.
+L'espèce est présente dans les forêts d'autres pays d'Afrique de l'Ouest et du Centre.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son bois est peu utilisé, mais convient néanmoins pour la construction[2].
-Au Cameroun, c'est l'une des plantes médicinales les plus utilisées, pour traiter notamment la rougeole, la varicelle, les MST, la stérilité féminine, les dysfonctionnements hépatiques ou rénaux[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son bois est peu utilisé, mais convient néanmoins pour la construction.
+Au Cameroun, c'est l'une des plantes médicinales les plus utilisées, pour traiter notamment la rougeole, la varicelle, les MST, la stérilité féminine, les dysfonctionnements hépatiques ou rénaux.
 </t>
         </is>
       </c>
